--- a/main/工作簿1.xlsx
+++ b/main/工作簿1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81906\Desktop\project\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B2B207-B27E-4015-915B-A2BE980B4018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABF86DE-953B-412E-AAF4-0F06508B8E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1680" yWindow="2250" windowWidth="12780" windowHeight="8890" xr2:uid="{20DD1D1B-C71B-4D3E-A493-E4E864E7F474}"/>
   </bookViews>
@@ -417,15 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542F871B-2833-4AF0-958C-CA369F565933}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -439,7 +439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -455,8 +455,15 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G2" s="2">
+        <f>B2+B12</f>
+        <v>0.28319973723765102</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -472,8 +479,15 @@
       <c r="E3" s="2">
         <v>9.6879259867115706E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" s="2">
+        <f>B3+B11</f>
+        <v>0.26868354927378302</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -489,8 +503,15 @@
       <c r="E4" s="2">
         <v>1.3337733082241399E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G4" s="2">
+        <f>B4+B10</f>
+        <v>0.20495959992393031</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -506,8 +527,15 @@
       <c r="E5" s="2">
         <v>1.2363127144014701E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G5" s="2">
+        <f>B5+B9</f>
+        <v>0.3050032024440627</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -523,8 +551,15 @@
       <c r="E6" s="2">
         <v>4.2466495508005899E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G6" s="2">
+        <f>B6+B8</f>
+        <v>0.32614931818030501</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
@@ -540,8 +575,15 @@
       <c r="E7" s="2">
         <v>1.9528687560729601E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G7" s="2">
+        <f>2*B7</f>
+        <v>0.216396241865176</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -558,7 +600,7 @@
         <v>2.92019118353761E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -575,7 +617,7 @@
         <v>1.6927366738028701E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
@@ -592,7 +634,7 @@
         <v>3.5821295580214501E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
       </c>
@@ -609,7 +651,7 @@
         <v>2.11929077280155E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -626,7 +668,7 @@
         <v>6.5236689318236701E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -640,7 +682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -657,7 +699,7 @@
         <v>2.3579340583179901E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
